--- a/biology/Botanique/Ce_qui_nous_lie/Ce_qui_nous_lie.xlsx
+++ b/biology/Botanique/Ce_qui_nous_lie/Ce_qui_nous_lie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce qui nous lie est un film français co-écrit et réalisé par Cédric Klapisch, sorti en 2017.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean a quitté le vignoble familial en Bourgogne pour faire un tour du monde et s'est installé en Australie où il produit son propre vin. Il revient en France au bout de dix ans, un peu à contre-cœur et à l'improviste, parce que son père est très malade. Il retrouve sa sœur cadette Juliette et son petit frère Jérémie qui a fondé une famille. Leur père meurt quelques jours après, et la fratrie doit faire face simultanément aux problèmes posés par la succession du domaine et aux premières vendanges, sans les décisions éclairées de leur père.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : Ce qui nous lie
@@ -568,7 +584,7 @@
 Langues originales : français, anglais et espagnol
 Genre : comédie dramatique
 Durée : 113 minutes
-Budget : 7 870 000 euros[1]
+Budget : 7 870 000 euros
 Format : couleur - 2.35:1 - DCP
 Dates de sortie :
 France : 16 mai 2017 (première à Clermont-Ferrand) ; 14 juin 2017 (sortie nationale)
@@ -603,12 +619,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pio Marmaï : Jean, l'aîné
 Ana Girardot : Juliette, la cadette
 François Civil : Jérémie, le benjamin
-Jean-Marc Roulot : Marcel, le maître de chai, vigneron et acteur[2]
+Jean-Marc Roulot : Marcel, le maître de chai, vigneron et acteur
 Yamée Couture : Océane, la femme de Jérémie
 María Valverde : Alicia, la femme de Jean
 Éric Caravaca : le père
@@ -648,13 +666,15 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est annoncé à l'été 2015[3].
-Le film a eu plusieurs titres de travail successifs : Le Vin, puis 30 printemps, puis Le Vin et le Vent[4], et enfin Ce qui nous noue[N 1] en postproduction, ce dernier en référence à Ce qui me meut[N 2], le court métrage que Cédric Klapisch avait réalisé en 1989[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est annoncé à l'été 2015.
+Le film a eu plusieurs titres de travail successifs : Le Vin, puis 30 printemps, puis Le Vin et le Vent, et enfin Ce qui nous noue[N 1] en postproduction, ce dernier en référence à Ce qui me meut[N 2], le court métrage que Cédric Klapisch avait réalisé en 1989.
 Ce douzième long métrage de Cédric Klapisch est le premier dans lequel l'acteur Zinedine Soualem n'apparaît pas.
-Le tournage a lieu de septembre 2015 au printemps 2016 en Côte-d'Or (Bourgogne)[6] : Meursault, Chassagne-Montrachet (Domaine des Ducs de Magenta), Puligny-Montrachet et Beaune[7].
-Cédric Klapisch compose avec Camélia Jordana[8] Ce qui nous lie, chanson originale du film qu'elle interprète pour sa bande originale.
+Le tournage a lieu de septembre 2015 au printemps 2016 en Côte-d'Or (Bourgogne) : Meursault, Chassagne-Montrachet (Domaine des Ducs de Magenta), Puligny-Montrachet et Beaune.
+Cédric Klapisch compose avec Camélia Jordana Ce qui nous lie, chanson originale du film qu'elle interprète pour sa bande originale.
 </t>
         </is>
       </c>
@@ -685,11 +705,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Accueil critique
-Le film reçoit un accueil critique globalement favorable de la presse, avec une note moyenne de 3,4/5 basée sur 31 critiques sur le site Allociné.
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit un accueil critique globalement favorable de la presse, avec une note moyenne de 3,4/5 basée sur 31 critiques sur le site Allociné.
 Parmi les critiques les plus enthousiastes, Corinne Renou-Nativel du quotidien La Croix estime que le film « fourmille de scènes hilarantes, délicieux contrepoints à la mélancolie d’une enfance qui s’enfuit ». Thierry Cheze du magazine Studio Ciné Live pense que Cédric Klapisch a réalisé « son premier film d'homme mûr qui regarde la jeunesse avec distance sans nostalgie facile mais avec une empathie généreuse pour ses comédiens et ses personnages qui file le frisson ». Olivier de Bruyn dans Marianne qualifie le film d'« émouvant, profond et (parfois) cocasse ».
 Dans les critiques négatives, Julien Gester de Libération trouve que la « mise en scène capte à peu près tout à l’identique, avec la même tendresse mollassonne ». Eric Neuhoff du Figaro, analyse les défauts du film : « La voix off souligne l'action de phrases pompeuses. Les retours en arrière, les ralentis désolent par leur balourdise. On voit même le personnage principal dialoguer avec lui-même en culottes courtes. Aïe. Sinon, l'histoire se déroule sans accroc, sans surprise non plus. »
-Box-office</t>
+</t>
         </is>
       </c>
     </row>
